--- a/sorbonne-paris-nord/SPN_ACV_TP_données.xlsx
+++ b/sorbonne-paris-nord/SPN_ACV_TP_données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lca-teaching\sorbonne-paris-nord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066FA57-FBC4-4B59-9BCA-72D846A6EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14664C6-DE7F-4062-B2B8-1FBDCA9AE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C508237C-FCEB-47CF-80E6-621039195DB4}"/>
   </bookViews>
@@ -893,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1128,6 +1128,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1137,7 +1163,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1174,7 +1200,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1287,6 +1312,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13680,7 +13707,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$6" spid="_x0000_s1073"/>
+                  <a14:cameraTool cellRange="$I$6" spid="_x0000_s1076"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13745,7 +13772,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$7" spid="_x0000_s1074"/>
+                  <a14:cameraTool cellRange="$I$7" spid="_x0000_s1077"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13810,7 +13837,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$8" spid="_x0000_s1075"/>
+                  <a14:cameraTool cellRange="$I$8" spid="_x0000_s1078"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13847,6 +13874,81 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53510</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>42809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>96320</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>96320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622CCD07-AAA0-0FD1-C847-4DC1BB438923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8315645" y="9193230"/>
+          <a:ext cx="1327079" cy="470899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IE" sz="900"/>
+            <a:t>Choisissez ici le pays où</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IE" sz="900" baseline="0"/>
+            <a:t> le véhicule est chargé</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IE" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14753,21 +14855,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>138</v>
       </c>
       <c r="C3" t="s">
@@ -14775,7 +14877,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>150</v>
       </c>
       <c r="C4" t="s">
@@ -14783,7 +14885,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>140</v>
       </c>
       <c r="C5" t="s">
@@ -14791,7 +14893,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C6" t="s">
@@ -14799,7 +14901,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>144</v>
       </c>
       <c r="C7" t="s">
@@ -14807,7 +14909,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>146</v>
       </c>
       <c r="C8" t="s">
@@ -14815,16 +14917,16 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14838,8 +14940,8 @@
   </sheetPr>
   <dimension ref="B1:AM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -14860,48 +14962,48 @@
   <sheetData>
     <row r="1" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="61"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="63"/>
+      <c r="B3" s="62"/>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
@@ -14911,17 +15013,17 @@
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="AL3" s="64"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="AL3" s="63"/>
     </row>
     <row r="4" spans="2:38" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -14933,19 +15035,19 @@
       <c r="F4" s="27">
         <v>250000</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="103">
         <v>1</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="AL4" s="64"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="AL4" s="63"/>
     </row>
     <row r="5" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
+      <c r="B5" s="62"/>
       <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
@@ -14955,42 +15057,42 @@
       <c r="F5" s="28">
         <v>15000</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="103">
         <v>2</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="AL5" s="64"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="AL5" s="63"/>
     </row>
     <row r="6" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63"/>
+      <c r="B6" s="62"/>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="104">
+      <c r="F6" s="77"/>
+      <c r="G6" s="103">
         <v>1</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="103">
         <v>3</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="AL6" s="64"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="AL6" s="63"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
+      <c r="B7" s="62"/>
       <c r="D7" s="2" t="s">
         <v>96</v>
       </c>
@@ -15000,19 +15102,19 @@
       <c r="F7" s="28">
         <v>6</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="103">
         <v>4</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="AL7" s="64"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="AL7" s="63"/>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B8" s="63"/>
+      <c r="B8" s="62"/>
       <c r="D8" s="2" t="s">
         <v>97</v>
       </c>
@@ -15022,19 +15124,19 @@
       <c r="F8" s="29">
         <v>18</v>
       </c>
-      <c r="I8" s="105">
+      <c r="I8" s="104">
         <v>5</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="AL8" s="64"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="AL8" s="63"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B9" s="63"/>
+      <c r="B9" s="62"/>
       <c r="D9" s="2" t="s">
         <v>153</v>
       </c>
@@ -15044,10 +15146,10 @@
       <c r="F9" s="30">
         <v>0.1</v>
       </c>
-      <c r="AL9" s="64"/>
+      <c r="AL9" s="63"/>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B10" s="63"/>
+      <c r="B10" s="62"/>
       <c r="D10" s="2" t="s">
         <v>56</v>
       </c>
@@ -15057,10 +15159,10 @@
       <c r="F10" s="28">
         <v>1700</v>
       </c>
-      <c r="AL10" s="64"/>
+      <c r="AL10" s="63"/>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
+      <c r="B11" s="62"/>
       <c r="D11" s="2" t="s">
         <v>59</v>
       </c>
@@ -15070,10 +15172,10 @@
       <c r="F11" s="28">
         <v>1600</v>
       </c>
-      <c r="AL11" s="64"/>
+      <c r="AL11" s="63"/>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B12" s="63"/>
+      <c r="B12" s="62"/>
       <c r="D12" s="2" t="s">
         <v>100</v>
       </c>
@@ -15083,10 +15185,10 @@
       <c r="F12" s="28">
         <v>60</v>
       </c>
-      <c r="AL12" s="64"/>
+      <c r="AL12" s="63"/>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B13" s="63"/>
+      <c r="B13" s="62"/>
       <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
@@ -15096,14 +15198,14 @@
       <c r="F13" s="31">
         <v>100</v>
       </c>
-      <c r="AL13" s="64"/>
+      <c r="AL13" s="63"/>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B14" s="63"/>
-      <c r="AL14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="AL14" s="63"/>
     </row>
     <row r="15" spans="2:38" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="64" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -15112,10 +15214,10 @@
       <c r="F15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AL15" s="64"/>
+      <c r="AL15" s="63"/>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B16" s="63"/>
+      <c r="B16" s="62"/>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
@@ -15125,10 +15227,10 @@
       <c r="F16" s="28">
         <v>12</v>
       </c>
-      <c r="AL16" s="64"/>
+      <c r="AL16" s="63"/>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="63"/>
+      <c r="B17" s="62"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -15138,10 +15240,10 @@
       <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="AL17" s="64"/>
+      <c r="AL17" s="63"/>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B18" s="63"/>
+      <c r="B18" s="62"/>
       <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
@@ -15151,20 +15253,20 @@
       <c r="F18" s="28">
         <v>16</v>
       </c>
-      <c r="AL18" s="64"/>
+      <c r="AL18" s="63"/>
     </row>
     <row r="19" spans="2:38" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
+      <c r="B19" s="62"/>
       <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AL19" s="64"/>
+      <c r="AL19" s="63"/>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B20" s="63"/>
+      <c r="B20" s="62"/>
       <c r="D20" s="2" t="s">
         <v>128</v>
       </c>
@@ -15174,10 +15276,10 @@
       <c r="F20" s="28">
         <v>0.85</v>
       </c>
-      <c r="AL20" s="64"/>
+      <c r="AL20" s="63"/>
     </row>
     <row r="21" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="D21" s="2" t="s">
         <v>126</v>
       </c>
@@ -15187,121 +15289,121 @@
       <c r="F21" s="28">
         <v>42</v>
       </c>
-      <c r="AL21" s="64"/>
+      <c r="AL21" s="63"/>
     </row>
     <row r="22" spans="2:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
+      <c r="B22" s="62"/>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="104">
+      <c r="F22" s="78"/>
+      <c r="G22" s="103">
         <v>2</v>
       </c>
-      <c r="AL22" s="64"/>
+      <c r="AL22" s="63"/>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B23" s="63"/>
-      <c r="AL23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="AL23" s="63"/>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B24" s="63"/>
-      <c r="AL24" s="64"/>
+      <c r="B24" s="62"/>
+      <c r="AL24" s="63"/>
     </row>
     <row r="25" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
-      <c r="AG25" s="67"/>
-      <c r="AH25" s="67"/>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-      <c r="AL25" s="68"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="66"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="67"/>
     </row>
     <row r="26" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="61"/>
-      <c r="AC27" s="61"/>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="61"/>
-      <c r="AH27" s="61"/>
-      <c r="AI27" s="61"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="61"/>
-      <c r="AL27" s="62"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="61"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B28" s="63"/>
-      <c r="AL28" s="64"/>
+      <c r="B28" s="62"/>
+      <c r="AL28" s="63"/>
     </row>
     <row r="29" spans="2:38" ht="122.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="63"/>
-      <c r="F29" s="106" t="s">
+      <c r="B29" s="62"/>
+      <c r="F29" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="105" t="s">
         <v>93</v>
       </c>
       <c r="H29" s="4" t="s">
@@ -15394,10 +15496,10 @@
       <c r="AK29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AL29" s="64"/>
+      <c r="AL29" s="63"/>
     </row>
     <row r="30" spans="2:38" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="64" t="s">
         <v>156</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -15502,10 +15604,10 @@
       <c r="AK30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL30" s="64"/>
+      <c r="AL30" s="63"/>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
@@ -15608,10 +15710,10 @@
       <c r="AK31" s="12">
         <v>0</v>
       </c>
-      <c r="AL31" s="64"/>
+      <c r="AL31" s="63"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B32" s="63"/>
+      <c r="B32" s="62"/>
       <c r="D32" s="3" t="s">
         <v>93</v>
       </c>
@@ -15714,10 +15816,10 @@
       <c r="AK32" s="14">
         <v>0</v>
       </c>
-      <c r="AL32" s="64"/>
+      <c r="AL32" s="63"/>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="D33" s="2" t="s">
         <v>64</v>
       </c>
@@ -15821,10 +15923,10 @@
       <c r="AK33" s="14">
         <v>0</v>
       </c>
-      <c r="AL33" s="64"/>
+      <c r="AL33" s="63"/>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
@@ -15834,7 +15936,7 @@
       <c r="F34" s="13">
         <v>0</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="47">
         <f>1/$F$4</f>
         <v>3.9999999999999998E-6</v>
       </c>
@@ -15928,10 +16030,10 @@
       <c r="AK34" s="14">
         <v>0</v>
       </c>
-      <c r="AL34" s="64"/>
+      <c r="AL34" s="63"/>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="D35" s="2" t="s">
         <v>112</v>
       </c>
@@ -15941,7 +16043,7 @@
       <c r="F35" s="13">
         <v>0</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="47">
         <f t="array" ref="G35">F12/F4</f>
         <v>2.4000000000000001E-4</v>
       </c>
@@ -16035,10 +16137,10 @@
       <c r="AK35" s="14">
         <v>0</v>
       </c>
-      <c r="AL35" s="64"/>
+      <c r="AL35" s="63"/>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B36" s="63"/>
+      <c r="B36" s="62"/>
       <c r="D36" s="2" t="s">
         <v>113</v>
       </c>
@@ -16048,7 +16150,7 @@
       <c r="F36" s="13">
         <v>0</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="47">
         <f>F12/F4</f>
         <v>2.4000000000000001E-4</v>
       </c>
@@ -16142,10 +16244,10 @@
       <c r="AK36" s="14">
         <v>0</v>
       </c>
-      <c r="AL36" s="64"/>
+      <c r="AL36" s="63"/>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B37" s="63"/>
+      <c r="B37" s="62"/>
       <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
@@ -16249,10 +16351,10 @@
       <c r="AK37" s="14">
         <v>0</v>
       </c>
-      <c r="AL37" s="64"/>
+      <c r="AL37" s="63"/>
     </row>
     <row r="38" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
+      <c r="B38" s="62"/>
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
@@ -16356,10 +16458,10 @@
       <c r="AK38" s="14">
         <v>0</v>
       </c>
-      <c r="AL38" s="64"/>
+      <c r="AL38" s="63"/>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B39" s="63"/>
+      <c r="B39" s="62"/>
       <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
@@ -16372,8 +16474,8 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="H39" s="80"/>
-      <c r="I39" s="81"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="80"/>
       <c r="J39" s="15">
         <v>0.1</v>
       </c>
@@ -16458,10 +16560,10 @@
       <c r="AK39" s="14">
         <v>0</v>
       </c>
-      <c r="AL39" s="64"/>
+      <c r="AL39" s="63"/>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B40" s="63"/>
+      <c r="B40" s="62"/>
       <c r="D40" s="2" t="s">
         <v>65</v>
       </c>
@@ -16474,8 +16576,8 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="82"/>
       <c r="J40" s="2">
         <v>0</v>
       </c>
@@ -16560,10 +16662,10 @@
       <c r="AK40" s="14">
         <v>0</v>
       </c>
-      <c r="AL40" s="64"/>
+      <c r="AL40" s="63"/>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
       <c r="D41" s="2" t="s">
         <v>12</v>
       </c>
@@ -16576,8 +16678,8 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="83"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="82"/>
       <c r="J41" s="15">
         <v>0.1</v>
       </c>
@@ -16662,10 +16764,10 @@
       <c r="AK41" s="14">
         <v>0</v>
       </c>
-      <c r="AL41" s="64"/>
+      <c r="AL41" s="63"/>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B42" s="63"/>
+      <c r="B42" s="62"/>
       <c r="D42" s="2" t="s">
         <v>66</v>
       </c>
@@ -16678,8 +16780,8 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="82"/>
-      <c r="I42" s="83"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="82"/>
       <c r="J42" s="2">
         <v>0</v>
       </c>
@@ -16764,10 +16866,10 @@
       <c r="AK42" s="14">
         <v>0</v>
       </c>
-      <c r="AL42" s="64"/>
+      <c r="AL42" s="63"/>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B43" s="63"/>
+      <c r="B43" s="62"/>
       <c r="D43" s="2" t="s">
         <v>67</v>
       </c>
@@ -16780,8 +16882,8 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="83"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="82"/>
       <c r="J43" s="2">
         <v>0</v>
       </c>
@@ -16866,10 +16968,10 @@
       <c r="AK43" s="14">
         <v>0</v>
       </c>
-      <c r="AL43" s="64"/>
+      <c r="AL43" s="63"/>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B44" s="63"/>
+      <c r="B44" s="62"/>
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
@@ -16882,8 +16984,8 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="83"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="82"/>
       <c r="J44" s="15">
         <v>0.1</v>
       </c>
@@ -16968,10 +17070,10 @@
       <c r="AK44" s="14">
         <v>0</v>
       </c>
-      <c r="AL44" s="64"/>
+      <c r="AL44" s="63"/>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B45" s="63"/>
+      <c r="B45" s="62"/>
       <c r="D45" s="2" t="s">
         <v>68</v>
       </c>
@@ -16984,8 +17086,8 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="83"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="82"/>
       <c r="J45" s="2">
         <v>0</v>
       </c>
@@ -17070,10 +17172,10 @@
       <c r="AK45" s="14">
         <v>0</v>
       </c>
-      <c r="AL45" s="64"/>
+      <c r="AL45" s="63"/>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B46" s="63"/>
+      <c r="B46" s="62"/>
       <c r="D46" s="2" t="s">
         <v>69</v>
       </c>
@@ -17086,8 +17188,8 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="82"/>
-      <c r="I46" s="83"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="82"/>
       <c r="J46" s="2">
         <v>0</v>
       </c>
@@ -17172,10 +17274,10 @@
       <c r="AK46" s="14">
         <v>0</v>
       </c>
-      <c r="AL46" s="64"/>
+      <c r="AL46" s="63"/>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B47" s="63"/>
+      <c r="B47" s="62"/>
       <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
@@ -17188,8 +17290,8 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="15">
         <v>0.5</v>
       </c>
@@ -17274,10 +17376,10 @@
       <c r="AK47" s="14">
         <v>0</v>
       </c>
-      <c r="AL47" s="64"/>
+      <c r="AL47" s="63"/>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B48" s="63"/>
+      <c r="B48" s="62"/>
       <c r="D48" s="2" t="s">
         <v>71</v>
       </c>
@@ -17290,8 +17392,8 @@
       <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="82"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="82"/>
       <c r="J48" s="2">
         <v>0</v>
       </c>
@@ -17376,10 +17478,10 @@
       <c r="AK48" s="14">
         <v>0</v>
       </c>
-      <c r="AL48" s="64"/>
+      <c r="AL48" s="63"/>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B49" s="63"/>
+      <c r="B49" s="62"/>
       <c r="D49" s="2" t="s">
         <v>72</v>
       </c>
@@ -17392,8 +17494,8 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="82"/>
-      <c r="I49" s="83"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="82"/>
       <c r="J49" s="2">
         <v>0</v>
       </c>
@@ -17478,10 +17580,10 @@
       <c r="AK49" s="14">
         <v>0</v>
       </c>
-      <c r="AL49" s="64"/>
+      <c r="AL49" s="63"/>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B50" s="63"/>
+      <c r="B50" s="62"/>
       <c r="D50" s="2" t="s">
         <v>73</v>
       </c>
@@ -17494,8 +17596,8 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="82"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="82"/>
       <c r="J50" s="2">
         <v>0</v>
       </c>
@@ -17580,10 +17682,10 @@
       <c r="AK50" s="14">
         <v>0</v>
       </c>
-      <c r="AL50" s="64"/>
+      <c r="AL50" s="63"/>
     </row>
     <row r="51" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
+      <c r="B51" s="62"/>
       <c r="D51" s="2" t="s">
         <v>74</v>
       </c>
@@ -17596,8 +17698,8 @@
       <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="85"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
       <c r="J51" s="2">
         <v>0</v>
       </c>
@@ -17682,10 +17784,10 @@
       <c r="AK51" s="14">
         <v>0</v>
       </c>
-      <c r="AL51" s="64"/>
+      <c r="AL51" s="63"/>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B52" s="63"/>
+      <c r="B52" s="62"/>
       <c r="D52" s="2" t="s">
         <v>51</v>
       </c>
@@ -17695,7 +17797,7 @@
       <c r="F52" s="13">
         <v>0</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="114">
         <f>$F$8/100/(1-$F$9)</f>
         <v>0.19999999999999998</v>
       </c>
@@ -17789,10 +17891,10 @@
       <c r="AK52" s="14">
         <v>0</v>
       </c>
-      <c r="AL52" s="64"/>
+      <c r="AL52" s="63"/>
     </row>
     <row r="53" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="63"/>
+      <c r="B53" s="62"/>
       <c r="D53" s="2" t="s">
         <v>50</v>
       </c>
@@ -17802,7 +17904,7 @@
       <c r="F53" s="13">
         <v>0</v>
       </c>
-      <c r="G53" s="32">
+      <c r="G53" s="115">
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -17895,10 +17997,10 @@
       <c r="AK53" s="14">
         <v>0</v>
       </c>
-      <c r="AL53" s="64"/>
+      <c r="AL53" s="63"/>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B54" s="63"/>
+      <c r="B54" s="62"/>
       <c r="D54" s="2" t="s">
         <v>44</v>
       </c>
@@ -17968,8 +18070,8 @@
       <c r="Z54" s="2">
         <v>0</v>
       </c>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="87"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="86"/>
       <c r="AC54" s="2">
         <v>0</v>
       </c>
@@ -17997,10 +18099,10 @@
       <c r="AK54" s="14">
         <v>0</v>
       </c>
-      <c r="AL54" s="64"/>
+      <c r="AL54" s="63"/>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B55" s="63"/>
+      <c r="B55" s="62"/>
       <c r="D55" s="2" t="s">
         <v>45</v>
       </c>
@@ -18070,8 +18172,8 @@
       <c r="Z55" s="2">
         <v>0</v>
       </c>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="89"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="88"/>
       <c r="AC55" s="2">
         <v>0</v>
       </c>
@@ -18099,10 +18201,10 @@
       <c r="AK55" s="14">
         <v>0</v>
       </c>
-      <c r="AL55" s="64"/>
+      <c r="AL55" s="63"/>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B56" s="63"/>
+      <c r="B56" s="62"/>
       <c r="D56" s="2" t="s">
         <v>46</v>
       </c>
@@ -18172,8 +18274,8 @@
       <c r="Z56" s="2">
         <v>0</v>
       </c>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="89"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="88"/>
       <c r="AC56" s="2">
         <v>0</v>
       </c>
@@ -18201,10 +18303,10 @@
       <c r="AK56" s="14">
         <v>0</v>
       </c>
-      <c r="AL56" s="64"/>
+      <c r="AL56" s="63"/>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B57" s="63"/>
+      <c r="B57" s="62"/>
       <c r="D57" s="2" t="s">
         <v>49</v>
       </c>
@@ -18274,8 +18376,8 @@
       <c r="Z57" s="2">
         <v>0</v>
       </c>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="89"/>
+      <c r="AA57" s="87"/>
+      <c r="AB57" s="88"/>
       <c r="AC57" s="2">
         <v>0</v>
       </c>
@@ -18303,10 +18405,10 @@
       <c r="AK57" s="14">
         <v>0</v>
       </c>
-      <c r="AL57" s="64"/>
+      <c r="AL57" s="63"/>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B58" s="63"/>
+      <c r="B58" s="62"/>
       <c r="D58" s="2" t="s">
         <v>47</v>
       </c>
@@ -18376,8 +18478,8 @@
       <c r="Z58" s="2">
         <v>0</v>
       </c>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="89"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="88"/>
       <c r="AC58" s="2">
         <v>0</v>
       </c>
@@ -18405,10 +18507,10 @@
       <c r="AK58" s="14">
         <v>0</v>
       </c>
-      <c r="AL58" s="64"/>
+      <c r="AL58" s="63"/>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B59" s="63"/>
+      <c r="B59" s="62"/>
       <c r="D59" s="2" t="s">
         <v>48</v>
       </c>
@@ -18478,8 +18580,8 @@
       <c r="Z59" s="2">
         <v>0</v>
       </c>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="89"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="88"/>
       <c r="AC59" s="2">
         <v>0</v>
       </c>
@@ -18507,10 +18609,10 @@
       <c r="AK59" s="14">
         <v>0</v>
       </c>
-      <c r="AL59" s="64"/>
+      <c r="AL59" s="63"/>
     </row>
     <row r="60" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="63"/>
+      <c r="B60" s="62"/>
       <c r="D60" s="2" t="s">
         <v>75</v>
       </c>
@@ -18580,8 +18682,8 @@
       <c r="Z60" s="2">
         <v>0</v>
       </c>
-      <c r="AA60" s="90"/>
-      <c r="AB60" s="91"/>
+      <c r="AA60" s="89"/>
+      <c r="AB60" s="90"/>
       <c r="AC60" s="2">
         <v>0</v>
       </c>
@@ -18609,10 +18711,10 @@
       <c r="AK60" s="14">
         <v>0</v>
       </c>
-      <c r="AL60" s="64"/>
+      <c r="AL60" s="63"/>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B61" s="63"/>
+      <c r="B61" s="62"/>
       <c r="D61" s="2" t="s">
         <v>103</v>
       </c>
@@ -18717,10 +18819,10 @@
       <c r="AK61" s="14">
         <v>0</v>
       </c>
-      <c r="AL61" s="64"/>
+      <c r="AL61" s="63"/>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B62" s="63"/>
+      <c r="B62" s="62"/>
       <c r="D62" s="2" t="s">
         <v>102</v>
       </c>
@@ -18825,18 +18927,18 @@
       <c r="AK62" s="18">
         <v>0</v>
       </c>
-      <c r="AL62" s="64"/>
+      <c r="AL62" s="63"/>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B63" s="63"/>
-      <c r="AL63" s="64"/>
+      <c r="B63" s="62"/>
+      <c r="AL63" s="63"/>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B64" s="63"/>
-      <c r="AL64" s="64"/>
+      <c r="B64" s="62"/>
+      <c r="AL64" s="63"/>
     </row>
     <row r="65" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B65" s="65" t="s">
+      <c r="B65" s="64" t="s">
         <v>155</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -18845,10 +18947,10 @@
       <c r="E65" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL65" s="64"/>
+      <c r="AL65" s="63"/>
     </row>
     <row r="66" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B66" s="63"/>
+      <c r="B66" s="62"/>
       <c r="D66" s="2" t="s">
         <v>17</v>
       </c>
@@ -18955,13 +19057,13 @@
       <c r="AK66" s="12">
         <v>0</v>
       </c>
-      <c r="AL66" s="64"/>
+      <c r="AL66" s="63"/>
       <c r="AM66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B67" s="63"/>
+      <c r="B67" s="62"/>
       <c r="D67" s="2" t="s">
         <v>101</v>
       </c>
@@ -19064,13 +19166,13 @@
       <c r="AK67" s="14">
         <v>0</v>
       </c>
-      <c r="AL67" s="64"/>
+      <c r="AL67" s="63"/>
       <c r="AM67" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B68" s="63"/>
+      <c r="B68" s="62"/>
       <c r="D68" s="2" t="s">
         <v>109</v>
       </c>
@@ -19095,7 +19197,7 @@
       <c r="K68" s="15">
         <v>-223.20000000000002</v>
       </c>
-      <c r="L68" s="70">
+      <c r="L68" s="69">
         <f>F21*1.18</f>
         <v>49.559999999999995</v>
       </c>
@@ -19175,13 +19277,13 @@
       <c r="AK68" s="14">
         <v>0</v>
       </c>
-      <c r="AL68" s="64"/>
+      <c r="AL68" s="63"/>
       <c r="AM68" s="2">
         <v>3.6</v>
       </c>
     </row>
     <row r="69" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B69" s="63"/>
+      <c r="B69" s="62"/>
       <c r="D69" s="2" t="s">
         <v>119</v>
       </c>
@@ -19284,10 +19386,10 @@
       <c r="AK69" s="14">
         <v>0</v>
       </c>
-      <c r="AL69" s="64"/>
+      <c r="AL69" s="63"/>
     </row>
     <row r="70" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B70" s="63"/>
+      <c r="B70" s="62"/>
       <c r="D70" s="2" t="s">
         <v>38</v>
       </c>
@@ -19390,10 +19492,10 @@
       <c r="AK70" s="14">
         <v>0</v>
       </c>
-      <c r="AL70" s="64"/>
+      <c r="AL70" s="63"/>
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B71" s="63"/>
+      <c r="B71" s="62"/>
       <c r="D71" s="2" t="s">
         <v>31</v>
       </c>
@@ -19496,10 +19598,10 @@
       <c r="AK71" s="14">
         <v>0</v>
       </c>
-      <c r="AL71" s="64"/>
+      <c r="AL71" s="63"/>
     </row>
     <row r="72" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B72" s="63"/>
+      <c r="B72" s="62"/>
       <c r="D72" s="2" t="s">
         <v>27</v>
       </c>
@@ -19602,17 +19704,17 @@
       <c r="AK72" s="18">
         <v>0</v>
       </c>
-      <c r="AL72" s="64"/>
+      <c r="AL72" s="63"/>
     </row>
     <row r="73" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B73" s="63"/>
+      <c r="B73" s="62"/>
       <c r="F73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
-      <c r="AL73" s="64"/>
+      <c r="AL73" s="63"/>
     </row>
     <row r="74" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="64" t="s">
         <v>154</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -19639,10 +19741,10 @@
       <c r="L74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AL74" s="64"/>
+      <c r="AL74" s="63"/>
     </row>
     <row r="75" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B75" s="63"/>
+      <c r="B75" s="62"/>
       <c r="D75" s="2" t="s">
         <v>115</v>
       </c>
@@ -19670,10 +19772,10 @@
       <c r="L75" s="12">
         <v>0</v>
       </c>
-      <c r="AL75" s="64"/>
+      <c r="AL75" s="63"/>
     </row>
     <row r="76" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B76" s="63"/>
+      <c r="B76" s="62"/>
       <c r="D76" s="2" t="s">
         <v>109</v>
       </c>
@@ -19701,10 +19803,10 @@
       <c r="L76" s="14">
         <v>0</v>
       </c>
-      <c r="AL76" s="64"/>
+      <c r="AL76" s="63"/>
     </row>
     <row r="77" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B77" s="63"/>
+      <c r="B77" s="62"/>
       <c r="D77" s="2" t="s">
         <v>120</v>
       </c>
@@ -19720,132 +19822,132 @@
       <c r="H77" s="17">
         <v>0</v>
       </c>
-      <c r="I77" s="46">
+      <c r="I77" s="45">
         <v>1.15E-5</v>
       </c>
-      <c r="J77" s="46">
+      <c r="J77" s="45">
         <v>1.3699999999999999E-3</v>
       </c>
-      <c r="K77" s="46">
+      <c r="K77" s="45">
         <v>5.2399999999999999E-8</v>
       </c>
-      <c r="L77" s="47">
+      <c r="L77" s="46">
         <v>1.09E-9</v>
       </c>
-      <c r="AL77" s="64"/>
+      <c r="AL77" s="63"/>
     </row>
     <row r="78" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="66"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="72"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67"/>
-      <c r="Q78" s="67"/>
-      <c r="R78" s="67"/>
-      <c r="S78" s="67"/>
-      <c r="T78" s="67"/>
-      <c r="U78" s="67"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="67"/>
-      <c r="X78" s="67"/>
-      <c r="Y78" s="67"/>
-      <c r="Z78" s="67"/>
-      <c r="AA78" s="67"/>
-      <c r="AB78" s="67"/>
-      <c r="AC78" s="67"/>
-      <c r="AD78" s="67"/>
-      <c r="AE78" s="67"/>
-      <c r="AF78" s="67"/>
-      <c r="AG78" s="67"/>
-      <c r="AH78" s="67"/>
-      <c r="AI78" s="67"/>
-      <c r="AJ78" s="67"/>
-      <c r="AK78" s="67"/>
-      <c r="AL78" s="68"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="66"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="66"/>
+      <c r="AB78" s="66"/>
+      <c r="AC78" s="66"/>
+      <c r="AD78" s="66"/>
+      <c r="AE78" s="66"/>
+      <c r="AF78" s="66"/>
+      <c r="AG78" s="66"/>
+      <c r="AH78" s="66"/>
+      <c r="AI78" s="66"/>
+      <c r="AJ78" s="66"/>
+      <c r="AK78" s="66"/>
+      <c r="AL78" s="67"/>
     </row>
     <row r="79" spans="2:39" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="G79" s="42"/>
-      <c r="I79" s="42"/>
+      <c r="G79" s="41"/>
+      <c r="I79" s="41"/>
     </row>
     <row r="80" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B80" s="60" t="s">
+      <c r="B80" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="61"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="61"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="61"/>
-      <c r="S80" s="61"/>
-      <c r="T80" s="61"/>
-      <c r="U80" s="61"/>
-      <c r="V80" s="61"/>
-      <c r="W80" s="61"/>
-      <c r="X80" s="61"/>
-      <c r="Y80" s="61"/>
-      <c r="Z80" s="61"/>
-      <c r="AA80" s="61"/>
-      <c r="AB80" s="61"/>
-      <c r="AC80" s="61"/>
-      <c r="AD80" s="61"/>
-      <c r="AE80" s="61"/>
-      <c r="AF80" s="61"/>
-      <c r="AG80" s="61"/>
-      <c r="AH80" s="61"/>
-      <c r="AI80" s="61"/>
-      <c r="AJ80" s="61"/>
-      <c r="AK80" s="61"/>
-      <c r="AL80" s="62"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="60"/>
+      <c r="X80" s="60"/>
+      <c r="Y80" s="60"/>
+      <c r="Z80" s="60"/>
+      <c r="AA80" s="60"/>
+      <c r="AB80" s="60"/>
+      <c r="AC80" s="60"/>
+      <c r="AD80" s="60"/>
+      <c r="AE80" s="60"/>
+      <c r="AF80" s="60"/>
+      <c r="AG80" s="60"/>
+      <c r="AH80" s="60"/>
+      <c r="AI80" s="60"/>
+      <c r="AJ80" s="60"/>
+      <c r="AK80" s="60"/>
+      <c r="AL80" s="61"/>
     </row>
     <row r="81" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B81" s="63"/>
-      <c r="G81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="AL81" s="64"/>
+      <c r="B81" s="62"/>
+      <c r="G81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="AL81" s="63"/>
     </row>
     <row r="82" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B82" s="63"/>
+      <c r="B82" s="62"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="G82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="AL82" s="64"/>
+      <c r="G82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="AL82" s="63"/>
     </row>
     <row r="83" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B83" s="63"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="AL83" s="64"/>
+      <c r="G83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="AL83" s="63"/>
     </row>
     <row r="84" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="64" t="s">
         <v>172</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -19951,10 +20053,10 @@
       <c r="AK84" s="12">
         <v>0</v>
       </c>
-      <c r="AL84" s="64"/>
+      <c r="AL84" s="63"/>
     </row>
     <row r="85" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B85" s="63"/>
+      <c r="B85" s="62"/>
       <c r="D85" s="2" t="s">
         <v>109</v>
       </c>
@@ -20057,10 +20159,10 @@
       <c r="AK85" s="14">
         <v>0</v>
       </c>
-      <c r="AL85" s="64"/>
+      <c r="AL85" s="63"/>
     </row>
     <row r="86" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B86" s="63"/>
+      <c r="B86" s="62"/>
       <c r="D86" s="2" t="s">
         <v>120</v>
       </c>
@@ -20163,30 +20265,30 @@
       <c r="AK86" s="18">
         <v>0</v>
       </c>
-      <c r="AL86" s="64"/>
+      <c r="AL86" s="63"/>
     </row>
     <row r="87" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B87" s="63"/>
-      <c r="AL87" s="64"/>
+      <c r="B87" s="62"/>
+      <c r="AL87" s="63"/>
     </row>
     <row r="88" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="63"/>
-      <c r="AL88" s="64"/>
+      <c r="B88" s="62"/>
+      <c r="AL88" s="63"/>
     </row>
     <row r="89" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="63"/>
-      <c r="AL89" s="64"/>
+      <c r="B89" s="62"/>
+      <c r="AL89" s="63"/>
     </row>
     <row r="90" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="63"/>
-      <c r="AL90" s="64"/>
+      <c r="B90" s="62"/>
+      <c r="AL90" s="63"/>
     </row>
     <row r="91" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="63"/>
-      <c r="AL91" s="64"/>
+      <c r="B91" s="62"/>
+      <c r="AL91" s="63"/>
     </row>
     <row r="92" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="64" t="s">
         <v>114</v>
       </c>
       <c r="F92" s="10">
@@ -20286,10 +20388,10 @@
       <c r="AK92" s="12">
         <v>0</v>
       </c>
-      <c r="AL92" s="64"/>
+      <c r="AL92" s="63"/>
     </row>
     <row r="93" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="63"/>
+      <c r="B93" s="62"/>
       <c r="F93" s="13">
         <v>0</v>
       </c>
@@ -20386,10 +20488,10 @@
       <c r="AK93" s="14">
         <v>0</v>
       </c>
-      <c r="AL93" s="64"/>
+      <c r="AL93" s="63"/>
     </row>
     <row r="94" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="63"/>
+      <c r="B94" s="62"/>
       <c r="F94" s="20">
         <v>0</v>
       </c>
@@ -20486,10 +20588,10 @@
       <c r="AK94" s="14">
         <v>0</v>
       </c>
-      <c r="AL94" s="64"/>
+      <c r="AL94" s="63"/>
     </row>
     <row r="95" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="63"/>
+      <c r="B95" s="62"/>
       <c r="F95" s="13">
         <v>0</v>
       </c>
@@ -20586,10 +20688,10 @@
       <c r="AK95" s="14">
         <v>0</v>
       </c>
-      <c r="AL95" s="64"/>
+      <c r="AL95" s="63"/>
     </row>
     <row r="96" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="63"/>
+      <c r="B96" s="62"/>
       <c r="F96" s="13">
         <v>0</v>
       </c>
@@ -20686,10 +20788,10 @@
       <c r="AK96" s="14">
         <v>0</v>
       </c>
-      <c r="AL96" s="64"/>
+      <c r="AL96" s="63"/>
     </row>
     <row r="97" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="63"/>
+      <c r="B97" s="62"/>
       <c r="F97" s="13">
         <v>0</v>
       </c>
@@ -20786,10 +20888,10 @@
       <c r="AK97" s="14">
         <v>0</v>
       </c>
-      <c r="AL97" s="64"/>
+      <c r="AL97" s="63"/>
     </row>
     <row r="98" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="63"/>
+      <c r="B98" s="62"/>
       <c r="F98" s="20">
         <v>0</v>
       </c>
@@ -20886,10 +20988,10 @@
       <c r="AK98" s="14">
         <v>0</v>
       </c>
-      <c r="AL98" s="64"/>
+      <c r="AL98" s="63"/>
     </row>
     <row r="99" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="63"/>
+      <c r="B99" s="62"/>
       <c r="F99" s="20">
         <v>0</v>
       </c>
@@ -20986,10 +21088,10 @@
       <c r="AK99" s="14">
         <v>0</v>
       </c>
-      <c r="AL99" s="64"/>
+      <c r="AL99" s="63"/>
     </row>
     <row r="100" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="63"/>
+      <c r="B100" s="62"/>
       <c r="F100" s="13">
         <v>0</v>
       </c>
@@ -21086,10 +21188,10 @@
       <c r="AK100" s="14">
         <v>0</v>
       </c>
-      <c r="AL100" s="64"/>
+      <c r="AL100" s="63"/>
     </row>
     <row r="101" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="63"/>
+      <c r="B101" s="62"/>
       <c r="F101" s="13">
         <v>0</v>
       </c>
@@ -21186,10 +21288,10 @@
       <c r="AK101" s="14">
         <v>0</v>
       </c>
-      <c r="AL101" s="64"/>
+      <c r="AL101" s="63"/>
     </row>
     <row r="102" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="63"/>
+      <c r="B102" s="62"/>
       <c r="F102" s="13">
         <v>0</v>
       </c>
@@ -21286,10 +21388,10 @@
       <c r="AK102" s="14">
         <v>0</v>
       </c>
-      <c r="AL102" s="64"/>
+      <c r="AL102" s="63"/>
     </row>
     <row r="103" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="63"/>
+      <c r="B103" s="62"/>
       <c r="F103" s="13">
         <v>0</v>
       </c>
@@ -21386,10 +21488,10 @@
       <c r="AK103" s="14">
         <v>0</v>
       </c>
-      <c r="AL103" s="64"/>
+      <c r="AL103" s="63"/>
     </row>
     <row r="104" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="63"/>
+      <c r="B104" s="62"/>
       <c r="F104" s="13">
         <v>0</v>
       </c>
@@ -21486,10 +21588,10 @@
       <c r="AK104" s="14">
         <v>0</v>
       </c>
-      <c r="AL104" s="64"/>
+      <c r="AL104" s="63"/>
     </row>
     <row r="105" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="63"/>
+      <c r="B105" s="62"/>
       <c r="F105" s="13">
         <v>0</v>
       </c>
@@ -21586,10 +21688,10 @@
       <c r="AK105" s="14">
         <v>0</v>
       </c>
-      <c r="AL105" s="64"/>
+      <c r="AL105" s="63"/>
     </row>
     <row r="106" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="63"/>
+      <c r="B106" s="62"/>
       <c r="F106" s="13">
         <v>0</v>
       </c>
@@ -21686,10 +21788,10 @@
       <c r="AK106" s="14">
         <v>0</v>
       </c>
-      <c r="AL106" s="64"/>
+      <c r="AL106" s="63"/>
     </row>
     <row r="107" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="63"/>
+      <c r="B107" s="62"/>
       <c r="F107" s="13">
         <v>0</v>
       </c>
@@ -21786,10 +21888,10 @@
       <c r="AK107" s="14">
         <v>0</v>
       </c>
-      <c r="AL107" s="64"/>
+      <c r="AL107" s="63"/>
     </row>
     <row r="108" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="63"/>
+      <c r="B108" s="62"/>
       <c r="F108" s="13">
         <v>0</v>
       </c>
@@ -21886,10 +21988,10 @@
       <c r="AK108" s="14">
         <v>0</v>
       </c>
-      <c r="AL108" s="64"/>
+      <c r="AL108" s="63"/>
     </row>
     <row r="109" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="63"/>
+      <c r="B109" s="62"/>
       <c r="F109" s="13">
         <v>0</v>
       </c>
@@ -21986,10 +22088,10 @@
       <c r="AK109" s="14">
         <v>0</v>
       </c>
-      <c r="AL109" s="64"/>
+      <c r="AL109" s="63"/>
     </row>
     <row r="110" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="63"/>
+      <c r="B110" s="62"/>
       <c r="F110" s="13">
         <v>0</v>
       </c>
@@ -22086,10 +22188,10 @@
       <c r="AK110" s="14">
         <v>0</v>
       </c>
-      <c r="AL110" s="64"/>
+      <c r="AL110" s="63"/>
     </row>
     <row r="111" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="63"/>
+      <c r="B111" s="62"/>
       <c r="F111" s="13">
         <v>0</v>
       </c>
@@ -22186,10 +22288,10 @@
       <c r="AK111" s="14">
         <v>0</v>
       </c>
-      <c r="AL111" s="64"/>
+      <c r="AL111" s="63"/>
     </row>
     <row r="112" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="63"/>
+      <c r="B112" s="62"/>
       <c r="F112" s="13">
         <v>0</v>
       </c>
@@ -22286,10 +22388,10 @@
       <c r="AK112" s="14">
         <v>0</v>
       </c>
-      <c r="AL112" s="64"/>
+      <c r="AL112" s="63"/>
     </row>
     <row r="113" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="63"/>
+      <c r="B113" s="62"/>
       <c r="F113" s="13">
         <v>0</v>
       </c>
@@ -22386,10 +22488,10 @@
       <c r="AK113" s="14">
         <v>0</v>
       </c>
-      <c r="AL113" s="64"/>
+      <c r="AL113" s="63"/>
     </row>
     <row r="114" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="63"/>
+      <c r="B114" s="62"/>
       <c r="F114" s="13">
         <v>0</v>
       </c>
@@ -22486,10 +22588,10 @@
       <c r="AK114" s="14">
         <v>0</v>
       </c>
-      <c r="AL114" s="64"/>
+      <c r="AL114" s="63"/>
     </row>
     <row r="115" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="63"/>
+      <c r="B115" s="62"/>
       <c r="F115" s="13">
         <v>0</v>
       </c>
@@ -22553,10 +22655,10 @@
       <c r="Z115" s="2">
         <v>0</v>
       </c>
-      <c r="AA115" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB115" s="69">
+      <c r="AA115" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="68">
         <v>0</v>
       </c>
       <c r="AC115" s="2">
@@ -22586,10 +22688,10 @@
       <c r="AK115" s="14">
         <v>0</v>
       </c>
-      <c r="AL115" s="64"/>
+      <c r="AL115" s="63"/>
     </row>
     <row r="116" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="63"/>
+      <c r="B116" s="62"/>
       <c r="F116" s="13">
         <v>0</v>
       </c>
@@ -22653,10 +22755,10 @@
       <c r="Z116" s="2">
         <v>0</v>
       </c>
-      <c r="AA116" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB116" s="69">
+      <c r="AA116" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="68">
         <v>0</v>
       </c>
       <c r="AC116" s="2">
@@ -22686,10 +22788,10 @@
       <c r="AK116" s="14">
         <v>0</v>
       </c>
-      <c r="AL116" s="64"/>
+      <c r="AL116" s="63"/>
     </row>
     <row r="117" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="63"/>
+      <c r="B117" s="62"/>
       <c r="F117" s="13">
         <v>0</v>
       </c>
@@ -22753,10 +22855,10 @@
       <c r="Z117" s="2">
         <v>0</v>
       </c>
-      <c r="AA117" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB117" s="69">
+      <c r="AA117" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="68">
         <v>0</v>
       </c>
       <c r="AC117" s="2">
@@ -22786,10 +22888,10 @@
       <c r="AK117" s="14">
         <v>0</v>
       </c>
-      <c r="AL117" s="64"/>
+      <c r="AL117" s="63"/>
     </row>
     <row r="118" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="63"/>
+      <c r="B118" s="62"/>
       <c r="F118" s="13">
         <v>0</v>
       </c>
@@ -22853,10 +22955,10 @@
       <c r="Z118" s="2">
         <v>0</v>
       </c>
-      <c r="AA118" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="69">
+      <c r="AA118" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="68">
         <v>0</v>
       </c>
       <c r="AC118" s="2">
@@ -22886,10 +22988,10 @@
       <c r="AK118" s="14">
         <v>0</v>
       </c>
-      <c r="AL118" s="64"/>
+      <c r="AL118" s="63"/>
     </row>
     <row r="119" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="63"/>
+      <c r="B119" s="62"/>
       <c r="F119" s="13">
         <v>0</v>
       </c>
@@ -22953,10 +23055,10 @@
       <c r="Z119" s="2">
         <v>0</v>
       </c>
-      <c r="AA119" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB119" s="69">
+      <c r="AA119" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="68">
         <v>0</v>
       </c>
       <c r="AC119" s="2">
@@ -22986,10 +23088,10 @@
       <c r="AK119" s="14">
         <v>0</v>
       </c>
-      <c r="AL119" s="64"/>
+      <c r="AL119" s="63"/>
     </row>
     <row r="120" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="63"/>
+      <c r="B120" s="62"/>
       <c r="F120" s="13">
         <v>0</v>
       </c>
@@ -23053,10 +23155,10 @@
       <c r="Z120" s="2">
         <v>0</v>
       </c>
-      <c r="AA120" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB120" s="69">
+      <c r="AA120" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="68">
         <v>0</v>
       </c>
       <c r="AC120" s="2">
@@ -23086,10 +23188,10 @@
       <c r="AK120" s="14">
         <v>0</v>
       </c>
-      <c r="AL120" s="64"/>
+      <c r="AL120" s="63"/>
     </row>
     <row r="121" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="63"/>
+      <c r="B121" s="62"/>
       <c r="F121" s="13">
         <v>0</v>
       </c>
@@ -23153,10 +23255,10 @@
       <c r="Z121" s="2">
         <v>0</v>
       </c>
-      <c r="AA121" s="69">
-        <v>0</v>
-      </c>
-      <c r="AB121" s="69">
+      <c r="AA121" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="68">
         <v>0</v>
       </c>
       <c r="AC121" s="2">
@@ -23186,10 +23288,10 @@
       <c r="AK121" s="14">
         <v>0</v>
       </c>
-      <c r="AL121" s="64"/>
+      <c r="AL121" s="63"/>
     </row>
     <row r="122" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="63"/>
+      <c r="B122" s="62"/>
       <c r="F122" s="13">
         <v>0</v>
       </c>
@@ -23286,10 +23388,10 @@
       <c r="AK122" s="14">
         <v>0</v>
       </c>
-      <c r="AL122" s="64"/>
+      <c r="AL122" s="63"/>
     </row>
     <row r="123" spans="2:38" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="63"/>
+      <c r="B123" s="62"/>
       <c r="F123" s="16">
         <v>0</v>
       </c>
@@ -23386,14 +23488,14 @@
       <c r="AK123" s="18">
         <v>1</v>
       </c>
-      <c r="AL123" s="64"/>
+      <c r="AL123" s="63"/>
     </row>
     <row r="124" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B124" s="63"/>
-      <c r="AL124" s="64"/>
+      <c r="B124" s="62"/>
+      <c r="AL124" s="63"/>
     </row>
     <row r="125" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B125" s="65" t="s">
+      <c r="B125" s="64" t="s">
         <v>159</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -23402,17 +23504,17 @@
       <c r="E125" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL125" s="64"/>
+      <c r="AL125" s="63"/>
     </row>
     <row r="126" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B126" s="63"/>
+      <c r="B126" s="62"/>
       <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F126" s="33" t="e">
+      <c r="F126" s="32" t="e">
         <f t="array" ref="F126:AK157">MINVERSE(F92:AK123-F31:AK62)</f>
         <v>#DIV/0!</v>
       </c>
@@ -23506,20 +23608,20 @@
       <c r="AJ126" s="22" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK126" s="34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL126" s="64"/>
+      <c r="AK126" s="33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL126" s="63"/>
     </row>
     <row r="127" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B127" s="63"/>
+      <c r="B127" s="62"/>
       <c r="D127" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F127" s="35" t="e">
+      <c r="F127" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G127" s="7" t="e">
@@ -23612,20 +23714,20 @@
       <c r="AJ127" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK127" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL127" s="64"/>
+      <c r="AK127" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL127" s="63"/>
     </row>
     <row r="128" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B128" s="63"/>
+      <c r="B128" s="62"/>
       <c r="D128" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F128" s="40" t="e">
+      <c r="F128" s="39" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G128" s="7" t="e">
@@ -23718,23 +23820,23 @@
       <c r="AJ128" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK128" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL128" s="64"/>
+      <c r="AK128" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL128" s="63"/>
     </row>
     <row r="129" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B129" s="63"/>
+      <c r="B129" s="62"/>
       <c r="D129" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F129" s="35" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G129" s="74" t="e">
+      <c r="F129" s="34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G129" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="H129" s="7" t="e">
@@ -23824,23 +23926,23 @@
       <c r="AJ129" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK129" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL129" s="64"/>
+      <c r="AK129" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL129" s="63"/>
     </row>
     <row r="130" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B130" s="63"/>
+      <c r="B130" s="62"/>
       <c r="D130" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F130" s="35" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G130" s="74" t="e">
+      <c r="F130" s="34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G130" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="H130" s="7" t="e">
@@ -23930,23 +24032,23 @@
       <c r="AJ130" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK130" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL130" s="64"/>
+      <c r="AK130" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL130" s="63"/>
     </row>
     <row r="131" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B131" s="63"/>
+      <c r="B131" s="62"/>
       <c r="D131" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F131" s="35" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G131" s="74" t="e">
+      <c r="F131" s="34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G131" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="H131" s="7" t="e">
@@ -24036,20 +24138,20 @@
       <c r="AJ131" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK131" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL131" s="64"/>
+      <c r="AK131" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL131" s="63"/>
     </row>
     <row r="132" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B132" s="63"/>
+      <c r="B132" s="62"/>
       <c r="D132" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F132" s="40" t="e">
+      <c r="F132" s="39" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G132" s="7" t="e">
@@ -24142,20 +24244,20 @@
       <c r="AJ132" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK132" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL132" s="64"/>
+      <c r="AK132" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL132" s="63"/>
     </row>
     <row r="133" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B133" s="63"/>
+      <c r="B133" s="62"/>
       <c r="D133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F133" s="40" t="e">
+      <c r="F133" s="39" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G133" s="7" t="e">
@@ -24248,29 +24350,29 @@
       <c r="AJ133" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK133" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL133" s="64"/>
+      <c r="AK133" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL133" s="63"/>
     </row>
     <row r="134" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B134" s="63"/>
+      <c r="B134" s="62"/>
       <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F134" s="35" t="e">
+      <c r="F134" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G134" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H134" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I134" s="74" t="e">
+      <c r="H134" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J134" s="7" t="e">
@@ -24354,29 +24456,29 @@
       <c r="AJ134" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK134" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL134" s="64"/>
+      <c r="AK134" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL134" s="63"/>
     </row>
     <row r="135" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B135" s="63"/>
+      <c r="B135" s="62"/>
       <c r="D135" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F135" s="35" t="e">
+      <c r="F135" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G135" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H135" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I135" s="74" t="e">
+      <c r="H135" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I135" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J135" s="7" t="e">
@@ -24460,29 +24562,29 @@
       <c r="AJ135" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK135" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL135" s="64"/>
+      <c r="AK135" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL135" s="63"/>
     </row>
     <row r="136" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B136" s="63"/>
+      <c r="B136" s="62"/>
       <c r="D136" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F136" s="35" t="e">
+      <c r="F136" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G136" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H136" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I136" s="74" t="e">
+      <c r="H136" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I136" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J136" s="7" t="e">
@@ -24566,29 +24668,29 @@
       <c r="AJ136" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK136" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL136" s="64"/>
+      <c r="AK136" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL136" s="63"/>
     </row>
     <row r="137" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B137" s="63"/>
+      <c r="B137" s="62"/>
       <c r="D137" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F137" s="35" t="e">
+      <c r="F137" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G137" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H137" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I137" s="74" t="e">
+      <c r="H137" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I137" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J137" s="7" t="e">
@@ -24672,29 +24774,29 @@
       <c r="AJ137" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK137" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL137" s="64"/>
+      <c r="AK137" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL137" s="63"/>
     </row>
     <row r="138" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B138" s="63"/>
+      <c r="B138" s="62"/>
       <c r="D138" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F138" s="35" t="e">
+      <c r="F138" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G138" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H138" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I138" s="74" t="e">
+      <c r="H138" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I138" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J138" s="7" t="e">
@@ -24778,29 +24880,29 @@
       <c r="AJ138" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK138" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL138" s="64"/>
+      <c r="AK138" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL138" s="63"/>
     </row>
     <row r="139" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B139" s="63"/>
+      <c r="B139" s="62"/>
       <c r="D139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F139" s="35" t="e">
+      <c r="F139" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G139" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H139" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I139" s="74" t="e">
+      <c r="H139" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I139" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J139" s="7" t="e">
@@ -24884,29 +24986,29 @@
       <c r="AJ139" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK139" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL139" s="64"/>
+      <c r="AK139" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL139" s="63"/>
     </row>
     <row r="140" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B140" s="63"/>
+      <c r="B140" s="62"/>
       <c r="D140" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F140" s="35" t="e">
+      <c r="F140" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G140" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H140" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I140" s="74" t="e">
+      <c r="H140" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J140" s="7" t="e">
@@ -24990,29 +25092,29 @@
       <c r="AJ140" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK140" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL140" s="64"/>
+      <c r="AK140" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL140" s="63"/>
     </row>
     <row r="141" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B141" s="63"/>
+      <c r="B141" s="62"/>
       <c r="D141" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F141" s="35" t="e">
+      <c r="F141" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G141" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H141" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I141" s="74" t="e">
+      <c r="H141" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J141" s="7" t="e">
@@ -25096,29 +25198,29 @@
       <c r="AJ141" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK141" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL141" s="64"/>
+      <c r="AK141" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL141" s="63"/>
     </row>
     <row r="142" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B142" s="63"/>
+      <c r="B142" s="62"/>
       <c r="D142" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F142" s="35" t="e">
+      <c r="F142" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G142" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H142" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I142" s="74" t="e">
+      <c r="H142" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I142" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J142" s="7" t="e">
@@ -25202,29 +25304,29 @@
       <c r="AJ142" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK142" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL142" s="64"/>
+      <c r="AK142" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL142" s="63"/>
     </row>
     <row r="143" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B143" s="63"/>
+      <c r="B143" s="62"/>
       <c r="D143" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F143" s="35" t="e">
+      <c r="F143" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G143" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H143" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I143" s="74" t="e">
+      <c r="H143" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I143" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J143" s="7" t="e">
@@ -25308,29 +25410,29 @@
       <c r="AJ143" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK143" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL143" s="64"/>
+      <c r="AK143" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL143" s="63"/>
     </row>
     <row r="144" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B144" s="63"/>
+      <c r="B144" s="62"/>
       <c r="D144" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F144" s="35" t="e">
+      <c r="F144" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G144" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H144" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I144" s="74" t="e">
+      <c r="H144" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I144" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J144" s="7" t="e">
@@ -25414,29 +25516,29 @@
       <c r="AJ144" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK144" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL144" s="64"/>
+      <c r="AK144" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL144" s="63"/>
     </row>
     <row r="145" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B145" s="63"/>
+      <c r="B145" s="62"/>
       <c r="D145" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F145" s="35" t="e">
+      <c r="F145" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G145" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H145" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I145" s="74" t="e">
+      <c r="H145" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I145" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J145" s="7" t="e">
@@ -25520,29 +25622,29 @@
       <c r="AJ145" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK145" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL145" s="64"/>
+      <c r="AK145" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL145" s="63"/>
     </row>
     <row r="146" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B146" s="63"/>
+      <c r="B146" s="62"/>
       <c r="D146" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F146" s="35" t="e">
+      <c r="F146" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G146" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H146" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I146" s="74" t="e">
+      <c r="H146" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I146" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J146" s="7" t="e">
@@ -25626,29 +25728,29 @@
       <c r="AJ146" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK146" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL146" s="64"/>
+      <c r="AK146" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL146" s="63"/>
     </row>
     <row r="147" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B147" s="63"/>
+      <c r="B147" s="62"/>
       <c r="D147" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F147" s="35" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G147" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H147" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I147" s="74" t="e">
+      <c r="F147" s="34" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G147" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H147" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I147" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J147" s="7" t="e">
@@ -25732,20 +25834,20 @@
       <c r="AJ147" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK147" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL147" s="64"/>
+      <c r="AK147" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL147" s="63"/>
     </row>
     <row r="148" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B148" s="63"/>
+      <c r="B148" s="62"/>
       <c r="D148" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F148" s="35" t="e">
+      <c r="F148" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G148" s="7" t="e">
@@ -25838,20 +25940,20 @@
       <c r="AJ148" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK148" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL148" s="64"/>
+      <c r="AK148" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL148" s="63"/>
     </row>
     <row r="149" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B149" s="63"/>
+      <c r="B149" s="62"/>
       <c r="D149" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F149" s="35" t="e">
+      <c r="F149" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G149" s="7" t="e">
@@ -25914,10 +26016,10 @@
       <c r="Z149" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA149" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB149" s="74" t="e">
+      <c r="AA149" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB149" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC149" s="7" t="e">
@@ -25944,20 +26046,20 @@
       <c r="AJ149" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK149" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL149" s="64"/>
+      <c r="AK149" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL149" s="63"/>
     </row>
     <row r="150" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B150" s="63"/>
+      <c r="B150" s="62"/>
       <c r="D150" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F150" s="35" t="e">
+      <c r="F150" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G150" s="7" t="e">
@@ -26020,10 +26122,10 @@
       <c r="Z150" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA150" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB150" s="74" t="e">
+      <c r="AA150" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB150" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC150" s="7" t="e">
@@ -26050,20 +26152,20 @@
       <c r="AJ150" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK150" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL150" s="64"/>
+      <c r="AK150" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL150" s="63"/>
     </row>
     <row r="151" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B151" s="63"/>
+      <c r="B151" s="62"/>
       <c r="D151" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F151" s="35" t="e">
+      <c r="F151" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G151" s="7" t="e">
@@ -26126,10 +26228,10 @@
       <c r="Z151" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA151" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB151" s="74" t="e">
+      <c r="AA151" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB151" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC151" s="7" t="e">
@@ -26156,20 +26258,20 @@
       <c r="AJ151" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK151" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL151" s="64"/>
+      <c r="AK151" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL151" s="63"/>
     </row>
     <row r="152" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B152" s="63"/>
+      <c r="B152" s="62"/>
       <c r="D152" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F152" s="35" t="e">
+      <c r="F152" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G152" s="7" t="e">
@@ -26232,10 +26334,10 @@
       <c r="Z152" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA152" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB152" s="74" t="e">
+      <c r="AA152" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB152" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC152" s="7" t="e">
@@ -26262,20 +26364,20 @@
       <c r="AJ152" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK152" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL152" s="64"/>
+      <c r="AK152" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL152" s="63"/>
     </row>
     <row r="153" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B153" s="63"/>
+      <c r="B153" s="62"/>
       <c r="D153" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F153" s="35" t="e">
+      <c r="F153" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G153" s="7" t="e">
@@ -26338,10 +26440,10 @@
       <c r="Z153" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA153" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB153" s="74" t="e">
+      <c r="AA153" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB153" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC153" s="7" t="e">
@@ -26368,20 +26470,20 @@
       <c r="AJ153" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK153" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL153" s="64"/>
+      <c r="AK153" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL153" s="63"/>
     </row>
     <row r="154" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B154" s="63"/>
+      <c r="B154" s="62"/>
       <c r="D154" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F154" s="35" t="e">
+      <c r="F154" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G154" s="7" t="e">
@@ -26444,10 +26546,10 @@
       <c r="Z154" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA154" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB154" s="74" t="e">
+      <c r="AA154" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB154" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC154" s="7" t="e">
@@ -26474,20 +26576,20 @@
       <c r="AJ154" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK154" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL154" s="64"/>
+      <c r="AK154" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL154" s="63"/>
     </row>
     <row r="155" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B155" s="63"/>
+      <c r="B155" s="62"/>
       <c r="D155" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F155" s="35" t="e">
+      <c r="F155" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G155" s="7" t="e">
@@ -26550,10 +26652,10 @@
       <c r="Z155" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AA155" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB155" s="74" t="e">
+      <c r="AA155" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB155" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="AC155" s="7" t="e">
@@ -26580,29 +26682,29 @@
       <c r="AJ155" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK155" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL155" s="64"/>
+      <c r="AK155" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL155" s="63"/>
     </row>
     <row r="156" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B156" s="63"/>
+      <c r="B156" s="62"/>
       <c r="D156" s="2" t="s">
         <v>103</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F156" s="35" t="e">
+      <c r="F156" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G156" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H156" s="74" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I156" s="74" t="e">
+      <c r="H156" s="73" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I156" s="73" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J156" s="7" t="e">
@@ -26686,127 +26788,127 @@
       <c r="AJ156" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK156" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL156" s="64"/>
+      <c r="AK156" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL156" s="63"/>
     </row>
     <row r="157" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B157" s="63"/>
+      <c r="B157" s="62"/>
       <c r="D157" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F157" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H157" s="41" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I157" s="41" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ157" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK157" s="39" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL157" s="64"/>
+      <c r="F157" s="36" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H157" s="40" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I157" s="40" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ157" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK157" s="38" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL157" s="63"/>
     </row>
     <row r="158" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B158" s="63"/>
-      <c r="AL158" s="64"/>
+      <c r="B158" s="62"/>
+      <c r="AL158" s="63"/>
     </row>
     <row r="159" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B159" s="63"/>
-      <c r="AL159" s="64"/>
+      <c r="B159" s="62"/>
+      <c r="AL159" s="63"/>
     </row>
     <row r="160" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B160" s="65" t="s">
+      <c r="B160" s="64" t="s">
         <v>160</v>
       </c>
       <c r="D160" s="3" t="s">
@@ -26815,10 +26917,10 @@
       <c r="E160" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AL160" s="64"/>
+      <c r="AL160" s="63"/>
     </row>
     <row r="161" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B161" s="63"/>
+      <c r="B161" s="62"/>
       <c r="D161" s="2" t="s">
         <v>17</v>
       </c>
@@ -26832,10 +26934,10 @@
       <c r="G161" s="26" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H161" s="43" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I161" s="43" t="e">
+      <c r="H161" s="42" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I161" s="42" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J161" s="22" t="e">
@@ -26919,20 +27021,20 @@
       <c r="AJ161" s="22" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK161" s="34" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL161" s="64"/>
+      <c r="AK161" s="33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL161" s="63"/>
     </row>
     <row r="162" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B162" s="63"/>
+      <c r="B162" s="62"/>
       <c r="D162" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F162" s="35" t="e">
+      <c r="F162" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G162" s="7" t="e">
@@ -27025,29 +27127,29 @@
       <c r="AJ162" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK162" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL162" s="64"/>
+      <c r="AK162" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL162" s="63"/>
     </row>
     <row r="163" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B163" s="63"/>
+      <c r="B163" s="62"/>
       <c r="D163" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F163" s="35" t="e">
+      <c r="F163" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G163" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H163" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I163" s="45" t="e">
+      <c r="H163" s="44" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I163" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J163" s="7" t="e">
@@ -27131,29 +27233,29 @@
       <c r="AJ163" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK163" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL163" s="64"/>
+      <c r="AK163" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL163" s="63"/>
     </row>
     <row r="164" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B164" s="63"/>
+      <c r="B164" s="62"/>
       <c r="D164" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F164" s="35" t="e">
+      <c r="F164" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G164" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H164" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I164" s="45" t="e">
+      <c r="H164" s="44" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I164" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J164" s="7" t="e">
@@ -27237,29 +27339,29 @@
       <c r="AJ164" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK164" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL164" s="64"/>
+      <c r="AK164" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL164" s="63"/>
     </row>
     <row r="165" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B165" s="63"/>
+      <c r="B165" s="62"/>
       <c r="D165" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F165" s="35" t="e">
+      <c r="F165" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G165" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H165" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I165" s="45" t="e">
+      <c r="H165" s="44" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I165" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J165" s="7" t="e">
@@ -27343,29 +27445,29 @@
       <c r="AJ165" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK165" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL165" s="64"/>
+      <c r="AK165" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL165" s="63"/>
     </row>
     <row r="166" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B166" s="63"/>
+      <c r="B166" s="62"/>
       <c r="D166" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F166" s="35" t="e">
+      <c r="F166" s="34" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="G166" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="H166" s="45" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I166" s="45" t="e">
+      <c r="H166" s="44" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I166" s="44" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="J166" s="7" t="e">
@@ -27449,161 +27551,161 @@
       <c r="AJ166" s="7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="AK166" s="36" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL166" s="64"/>
+      <c r="AK166" s="35" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL166" s="63"/>
     </row>
     <row r="167" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B167" s="63"/>
+      <c r="B167" s="62"/>
       <c r="D167" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="37" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H167" s="44" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I167" s="44" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ167" s="38" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK167" s="39" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL167" s="64"/>
+      <c r="F167" s="36" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H167" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I167" s="43" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ167" s="37" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK167" s="38" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL167" s="63"/>
     </row>
     <row r="168" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="66"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="67"/>
-      <c r="E168" s="67"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="76"/>
-      <c r="I168" s="76"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="75"/>
-      <c r="M168" s="75"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="75"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
-      <c r="W168" s="75"/>
-      <c r="X168" s="75"/>
-      <c r="Y168" s="75"/>
-      <c r="Z168" s="75"/>
-      <c r="AA168" s="75"/>
-      <c r="AB168" s="75"/>
-      <c r="AC168" s="75"/>
-      <c r="AD168" s="75"/>
-      <c r="AE168" s="75"/>
-      <c r="AF168" s="75"/>
-      <c r="AG168" s="75"/>
-      <c r="AH168" s="75"/>
-      <c r="AI168" s="75"/>
-      <c r="AJ168" s="75"/>
-      <c r="AK168" s="75"/>
-      <c r="AL168" s="68"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="75"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="74"/>
+      <c r="M168" s="74"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="74"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="74"/>
+      <c r="T168" s="74"/>
+      <c r="U168" s="74"/>
+      <c r="V168" s="74"/>
+      <c r="W168" s="74"/>
+      <c r="X168" s="74"/>
+      <c r="Y168" s="74"/>
+      <c r="Z168" s="74"/>
+      <c r="AA168" s="74"/>
+      <c r="AB168" s="74"/>
+      <c r="AC168" s="74"/>
+      <c r="AD168" s="74"/>
+      <c r="AE168" s="74"/>
+      <c r="AF168" s="74"/>
+      <c r="AG168" s="74"/>
+      <c r="AH168" s="74"/>
+      <c r="AI168" s="74"/>
+      <c r="AJ168" s="74"/>
+      <c r="AK168" s="74"/>
+      <c r="AL168" s="67"/>
     </row>
     <row r="169" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="45"/>
-      <c r="I169" s="45"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
@@ -27634,48 +27736,48 @@
       <c r="AK169" s="7"/>
     </row>
     <row r="170" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B170" s="60" t="s">
+      <c r="B170" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="C170" s="61"/>
-      <c r="D170" s="61"/>
-      <c r="E170" s="61"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="77"/>
-      <c r="I170" s="77"/>
-      <c r="J170" s="77"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="77"/>
-      <c r="M170" s="77"/>
-      <c r="N170" s="77"/>
-      <c r="O170" s="77"/>
-      <c r="P170" s="77"/>
-      <c r="Q170" s="77"/>
-      <c r="R170" s="77"/>
-      <c r="S170" s="77"/>
-      <c r="T170" s="77"/>
-      <c r="U170" s="77"/>
-      <c r="V170" s="77"/>
-      <c r="W170" s="77"/>
-      <c r="X170" s="77"/>
-      <c r="Y170" s="77"/>
-      <c r="Z170" s="77"/>
-      <c r="AA170" s="77"/>
-      <c r="AB170" s="77"/>
-      <c r="AC170" s="77"/>
-      <c r="AD170" s="77"/>
-      <c r="AE170" s="77"/>
-      <c r="AF170" s="77"/>
-      <c r="AG170" s="77"/>
-      <c r="AH170" s="77"/>
-      <c r="AI170" s="77"/>
-      <c r="AJ170" s="77"/>
-      <c r="AK170" s="77"/>
-      <c r="AL170" s="62"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="60"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="76"/>
+      <c r="H170" s="76"/>
+      <c r="I170" s="76"/>
+      <c r="J170" s="76"/>
+      <c r="K170" s="76"/>
+      <c r="L170" s="76"/>
+      <c r="M170" s="76"/>
+      <c r="N170" s="76"/>
+      <c r="O170" s="76"/>
+      <c r="P170" s="76"/>
+      <c r="Q170" s="76"/>
+      <c r="R170" s="76"/>
+      <c r="S170" s="76"/>
+      <c r="T170" s="76"/>
+      <c r="U170" s="76"/>
+      <c r="V170" s="76"/>
+      <c r="W170" s="76"/>
+      <c r="X170" s="76"/>
+      <c r="Y170" s="76"/>
+      <c r="Z170" s="76"/>
+      <c r="AA170" s="76"/>
+      <c r="AB170" s="76"/>
+      <c r="AC170" s="76"/>
+      <c r="AD170" s="76"/>
+      <c r="AE170" s="76"/>
+      <c r="AF170" s="76"/>
+      <c r="AG170" s="76"/>
+      <c r="AH170" s="76"/>
+      <c r="AI170" s="76"/>
+      <c r="AJ170" s="76"/>
+      <c r="AK170" s="76"/>
+      <c r="AL170" s="61"/>
     </row>
     <row r="171" spans="2:38" ht="105" x14ac:dyDescent="0.2">
-      <c r="B171" s="63"/>
+      <c r="B171" s="62"/>
       <c r="F171" s="4" t="s">
         <v>3</v>
       </c>
@@ -27712,10 +27814,10 @@
       <c r="AI171" s="7"/>
       <c r="AJ171" s="7"/>
       <c r="AK171" s="7"/>
-      <c r="AL171" s="64"/>
+      <c r="AL171" s="63"/>
     </row>
     <row r="172" spans="2:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="65" t="s">
+      <c r="B172" s="64" t="s">
         <v>116</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -27760,62 +27862,62 @@
       <c r="AI172" s="7"/>
       <c r="AJ172" s="7"/>
       <c r="AK172" s="7"/>
-      <c r="AL172" s="64"/>
+      <c r="AL172" s="63"/>
     </row>
     <row r="173" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B173" s="63"/>
+      <c r="B173" s="62"/>
       <c r="D173" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F173" s="92"/>
-      <c r="G173" s="93"/>
-      <c r="H173" s="94"/>
-      <c r="I173" s="94"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
-      <c r="M173" s="77"/>
-      <c r="N173" s="77"/>
-      <c r="O173" s="77"/>
-      <c r="P173" s="77"/>
-      <c r="Q173" s="77"/>
-      <c r="R173" s="77"/>
-      <c r="S173" s="77"/>
-      <c r="T173" s="77"/>
-      <c r="U173" s="77"/>
-      <c r="V173" s="77"/>
-      <c r="W173" s="77"/>
-      <c r="X173" s="77"/>
-      <c r="Y173" s="77"/>
-      <c r="Z173" s="77"/>
-      <c r="AA173" s="77"/>
-      <c r="AB173" s="77"/>
-      <c r="AC173" s="77"/>
-      <c r="AD173" s="77"/>
-      <c r="AE173" s="77"/>
-      <c r="AF173" s="77"/>
-      <c r="AG173" s="77"/>
-      <c r="AH173" s="77"/>
-      <c r="AI173" s="77"/>
-      <c r="AJ173" s="77"/>
-      <c r="AK173" s="95"/>
-      <c r="AL173" s="64"/>
+      <c r="F173" s="91"/>
+      <c r="G173" s="92"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="93"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="76"/>
+      <c r="L173" s="76"/>
+      <c r="M173" s="76"/>
+      <c r="N173" s="76"/>
+      <c r="O173" s="76"/>
+      <c r="P173" s="76"/>
+      <c r="Q173" s="76"/>
+      <c r="R173" s="76"/>
+      <c r="S173" s="76"/>
+      <c r="T173" s="76"/>
+      <c r="U173" s="76"/>
+      <c r="V173" s="76"/>
+      <c r="W173" s="76"/>
+      <c r="X173" s="76"/>
+      <c r="Y173" s="76"/>
+      <c r="Z173" s="76"/>
+      <c r="AA173" s="76"/>
+      <c r="AB173" s="76"/>
+      <c r="AC173" s="76"/>
+      <c r="AD173" s="76"/>
+      <c r="AE173" s="76"/>
+      <c r="AF173" s="76"/>
+      <c r="AG173" s="76"/>
+      <c r="AH173" s="76"/>
+      <c r="AI173" s="76"/>
+      <c r="AJ173" s="76"/>
+      <c r="AK173" s="94"/>
+      <c r="AL173" s="63"/>
     </row>
     <row r="174" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B174" s="63"/>
+      <c r="B174" s="62"/>
       <c r="D174" s="2" t="s">
         <v>109</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F174" s="96"/>
-      <c r="G174" s="97"/>
-      <c r="H174" s="45"/>
-      <c r="I174" s="45"/>
+      <c r="F174" s="95"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="44"/>
+      <c r="I174" s="44"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
@@ -27843,89 +27945,89 @@
       <c r="AH174" s="7"/>
       <c r="AI174" s="7"/>
       <c r="AJ174" s="7"/>
-      <c r="AK174" s="98"/>
-      <c r="AL174" s="64"/>
+      <c r="AK174" s="97"/>
+      <c r="AL174" s="63"/>
     </row>
     <row r="175" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="63"/>
+      <c r="B175" s="62"/>
       <c r="D175" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F175" s="99"/>
-      <c r="G175" s="100"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="67"/>
-      <c r="J175" s="67"/>
-      <c r="K175" s="67"/>
-      <c r="L175" s="67"/>
-      <c r="M175" s="67"/>
-      <c r="N175" s="67"/>
-      <c r="O175" s="67"/>
-      <c r="P175" s="67"/>
-      <c r="Q175" s="67"/>
-      <c r="R175" s="67"/>
-      <c r="S175" s="67"/>
-      <c r="T175" s="67"/>
-      <c r="U175" s="67"/>
-      <c r="V175" s="67"/>
-      <c r="W175" s="67"/>
-      <c r="X175" s="67"/>
-      <c r="Y175" s="67"/>
-      <c r="Z175" s="67"/>
-      <c r="AA175" s="67"/>
-      <c r="AB175" s="67"/>
-      <c r="AC175" s="67"/>
-      <c r="AD175" s="67"/>
-      <c r="AE175" s="67"/>
-      <c r="AF175" s="67"/>
-      <c r="AG175" s="67"/>
-      <c r="AH175" s="67"/>
-      <c r="AI175" s="67"/>
-      <c r="AJ175" s="67"/>
-      <c r="AK175" s="68"/>
-      <c r="AL175" s="64"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="99"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="66"/>
+      <c r="J175" s="66"/>
+      <c r="K175" s="66"/>
+      <c r="L175" s="66"/>
+      <c r="M175" s="66"/>
+      <c r="N175" s="66"/>
+      <c r="O175" s="66"/>
+      <c r="P175" s="66"/>
+      <c r="Q175" s="66"/>
+      <c r="R175" s="66"/>
+      <c r="S175" s="66"/>
+      <c r="T175" s="66"/>
+      <c r="U175" s="66"/>
+      <c r="V175" s="66"/>
+      <c r="W175" s="66"/>
+      <c r="X175" s="66"/>
+      <c r="Y175" s="66"/>
+      <c r="Z175" s="66"/>
+      <c r="AA175" s="66"/>
+      <c r="AB175" s="66"/>
+      <c r="AC175" s="66"/>
+      <c r="AD175" s="66"/>
+      <c r="AE175" s="66"/>
+      <c r="AF175" s="66"/>
+      <c r="AG175" s="66"/>
+      <c r="AH175" s="66"/>
+      <c r="AI175" s="66"/>
+      <c r="AJ175" s="66"/>
+      <c r="AK175" s="67"/>
+      <c r="AL175" s="63"/>
     </row>
     <row r="176" spans="2:38" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="66"/>
-      <c r="C176" s="67"/>
-      <c r="D176" s="67"/>
-      <c r="E176" s="67"/>
-      <c r="F176" s="67"/>
-      <c r="G176" s="67"/>
-      <c r="H176" s="67"/>
-      <c r="I176" s="67"/>
-      <c r="J176" s="67"/>
-      <c r="K176" s="67"/>
-      <c r="L176" s="67"/>
-      <c r="M176" s="67"/>
-      <c r="N176" s="67"/>
-      <c r="O176" s="67"/>
-      <c r="P176" s="67"/>
-      <c r="Q176" s="67"/>
-      <c r="R176" s="67"/>
-      <c r="S176" s="67"/>
-      <c r="T176" s="67"/>
-      <c r="U176" s="67"/>
-      <c r="V176" s="67"/>
-      <c r="W176" s="67"/>
-      <c r="X176" s="67"/>
-      <c r="Y176" s="67"/>
-      <c r="Z176" s="67"/>
-      <c r="AA176" s="67"/>
-      <c r="AB176" s="67"/>
-      <c r="AC176" s="67"/>
-      <c r="AD176" s="67"/>
-      <c r="AE176" s="67"/>
-      <c r="AF176" s="67"/>
-      <c r="AG176" s="67"/>
-      <c r="AH176" s="67"/>
-      <c r="AI176" s="67"/>
-      <c r="AJ176" s="67"/>
-      <c r="AK176" s="67"/>
-      <c r="AL176" s="68"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="66"/>
+      <c r="J176" s="66"/>
+      <c r="K176" s="66"/>
+      <c r="L176" s="66"/>
+      <c r="M176" s="66"/>
+      <c r="N176" s="66"/>
+      <c r="O176" s="66"/>
+      <c r="P176" s="66"/>
+      <c r="Q176" s="66"/>
+      <c r="R176" s="66"/>
+      <c r="S176" s="66"/>
+      <c r="T176" s="66"/>
+      <c r="U176" s="66"/>
+      <c r="V176" s="66"/>
+      <c r="W176" s="66"/>
+      <c r="X176" s="66"/>
+      <c r="Y176" s="66"/>
+      <c r="Z176" s="66"/>
+      <c r="AA176" s="66"/>
+      <c r="AB176" s="66"/>
+      <c r="AC176" s="66"/>
+      <c r="AD176" s="66"/>
+      <c r="AE176" s="66"/>
+      <c r="AF176" s="66"/>
+      <c r="AG176" s="66"/>
+      <c r="AH176" s="66"/>
+      <c r="AI176" s="66"/>
+      <c r="AJ176" s="66"/>
+      <c r="AK176" s="66"/>
+      <c r="AL176" s="67"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F31:AK62 F66:AK73 H74:L75 F75:L77 F84:AK86">
@@ -27973,65 +28075,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="107" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="R1" s="107" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="R1" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107" t="s">
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="107"/>
-      <c r="AE1" s="107" t="s">
+      <c r="Z1" s="106"/>
+      <c r="AE1" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="107"/>
+      <c r="AF1" s="106"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107" t="s">
+      <c r="D2" s="106"/>
+      <c r="E2" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107" t="s">
+      <c r="F2" s="106"/>
+      <c r="G2" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="108"/>
+      <c r="I2" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107" t="s">
+      <c r="J2" s="106"/>
+      <c r="K2" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="107"/>
+      <c r="N2" s="106"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -28041,7 +28143,7 @@
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:32" ht="106.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -28056,7 +28158,7 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="52" t="s">
         <v>93</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -28100,7 +28202,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -28115,7 +28217,7 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="52" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -28175,25 +28277,25 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="54" t="e">
+      <c r="C6" s="53" t="e">
         <f t="array" ref="C6:D37">Inventaire!$F$126:$G$157*TRANSPOSE(Inventaire!$F84:$AK84)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D6" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="55" t="e">
+      <c r="D6" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="54" t="e">
         <f t="array" ref="E6:F37">Inventaire!$F$126:$G$157*TRANSPOSE(Inventaire!$F85:$AK85)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="55" t="e">
+      <c r="F6" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="54" t="e">
         <f t="array" ref="G6:H37">Inventaire!$F$126:$G$157*TRANSPOSE(Inventaire!$F86:$AK86)*1000000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="56" t="e">
+      <c r="H6" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="5" t="e">
@@ -28246,22 +28348,22 @@
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="56" t="e">
+      <c r="C7" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="5" t="e">
@@ -28311,22 +28413,22 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="56" t="e">
+      <c r="C8" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="5" t="e">
@@ -28376,22 +28478,22 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="56" t="e">
+      <c r="C9" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="5" t="e">
@@ -28441,22 +28543,22 @@
       <c r="B10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="56" t="e">
+      <c r="C10" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="5" t="e">
@@ -28506,22 +28608,22 @@
       <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="56" t="e">
+      <c r="C11" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="5" t="e">
@@ -28571,22 +28673,22 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="56" t="e">
+      <c r="C12" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="5" t="e">
@@ -28636,22 +28738,22 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="56" t="e">
+      <c r="C13" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="5" t="e">
@@ -28701,22 +28803,22 @@
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="56" t="e">
+      <c r="C14" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="5" t="e">
@@ -28766,22 +28868,22 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="56" t="e">
+      <c r="C15" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="5" t="e">
@@ -28831,22 +28933,22 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="56" t="e">
+      <c r="C16" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="5" t="e">
@@ -28896,22 +28998,22 @@
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="56" t="e">
+      <c r="C17" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="5" t="e">
@@ -28961,22 +29063,22 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="56" t="e">
+      <c r="C18" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I18" s="5" t="e">
@@ -29026,22 +29128,22 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="56" t="e">
+      <c r="C19" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="5" t="e">
@@ -29091,22 +29193,22 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="56" t="e">
+      <c r="C20" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="5" t="e">
@@ -29156,22 +29258,22 @@
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="56" t="e">
+      <c r="C21" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="5" t="e">
@@ -29221,22 +29323,22 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="56" t="e">
+      <c r="C22" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="5" t="e">
@@ -29286,22 +29388,22 @@
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="56" t="e">
+      <c r="C23" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="5" t="e">
@@ -29351,22 +29453,22 @@
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="56" t="e">
+      <c r="C24" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="5" t="e">
@@ -29416,22 +29518,22 @@
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="56" t="e">
+      <c r="C25" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I25" s="5" t="e">
@@ -29481,22 +29583,22 @@
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="56" t="e">
+      <c r="C26" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="5" t="e">
@@ -29546,22 +29648,22 @@
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="56" t="e">
+      <c r="C27" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="5" t="e">
@@ -29611,22 +29713,22 @@
       <c r="B28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="56" t="e">
+      <c r="C28" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="5" t="e">
@@ -29676,22 +29778,22 @@
       <c r="B29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="56" t="e">
+      <c r="C29" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="5" t="e">
@@ -29741,22 +29843,22 @@
       <c r="B30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="56" t="e">
+      <c r="C30" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="5" t="e">
@@ -29806,22 +29908,22 @@
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="56" t="e">
+      <c r="C31" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I31" s="5" t="e">
@@ -29871,22 +29973,22 @@
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="56" t="e">
+      <c r="C32" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="5" t="e">
@@ -29936,22 +30038,22 @@
       <c r="B33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="56" t="e">
+      <c r="C33" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="5" t="e">
@@ -30001,22 +30103,22 @@
       <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="56" t="e">
+      <c r="C34" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="5" t="e">
@@ -30066,22 +30168,22 @@
       <c r="B35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="56" t="e">
+      <c r="C35" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="5" t="e">
@@ -30131,22 +30233,22 @@
       <c r="B36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="56" t="e">
+      <c r="C36" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="5" t="e">
@@ -30196,22 +30298,22 @@
       <c r="B37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="54" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="55" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="56" t="e">
+      <c r="C37" s="53" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="54" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="55" t="e">
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="5" t="e">
@@ -30258,27 +30360,27 @@
       <c r="A38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="57" t="e">
+      <c r="C38" s="56" t="e">
         <f t="shared" ref="C38:D38" si="0">SUM(C6:C37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="58" t="e">
+      <c r="D38" s="57" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="58" t="e">
+      <c r="E38" s="57" t="e">
         <f t="shared" ref="E38" si="1">SUM(E6:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="58" t="e">
+      <c r="F38" s="57" t="e">
         <f t="shared" ref="F38" si="2">SUM(F6:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="58" t="e">
+      <c r="G38" s="57" t="e">
         <f t="shared" ref="G38" si="3">SUM(G6:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="59" t="e">
+      <c r="H38" s="58" t="e">
         <f t="shared" ref="H38" si="4">SUM(H6:H37)</f>
         <v>#DIV/0!</v>
       </c>
@@ -30345,9 +30447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8F9411-F855-4A04-BC4C-5A9BB224FBF6}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30360,14 +30460,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="114"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">

--- a/sorbonne-paris-nord/SPN_ACV_TP_données.xlsx
+++ b/sorbonne-paris-nord/SPN_ACV_TP_données.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lca-teaching\sorbonne-paris-nord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14664C6-DE7F-4062-B2B8-1FBDCA9AE5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60169E55-3203-4FB1-8F1F-E254E4276B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C508237C-FCEB-47CF-80E6-621039195DB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{C508237C-FCEB-47CF-80E6-621039195DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="9" r:id="rId1"/>
@@ -1288,6 +1288,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,8 +1314,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13707,7 +13707,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$6" spid="_x0000_s1076"/>
+                  <a14:cameraTool cellRange="$I$6" spid="_x0000_s1217"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13772,7 +13772,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$7" spid="_x0000_s1077"/>
+                  <a14:cameraTool cellRange="$I$7" spid="_x0000_s1218"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -13837,7 +13837,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$I$8" spid="_x0000_s1078"/>
+                  <a14:cameraTool cellRange="$I$8" spid="_x0000_s1219"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -14940,8 +14940,8 @@
   </sheetPr>
   <dimension ref="B1:AM176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A34" zoomScale="89" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -17797,7 +17797,7 @@
       <c r="F52" s="13">
         <v>0</v>
       </c>
-      <c r="G52" s="114">
+      <c r="G52" s="106">
         <f>$F$8/100/(1-$F$9)</f>
         <v>0.19999999999999998</v>
       </c>
@@ -17904,7 +17904,7 @@
       <c r="F53" s="13">
         <v>0</v>
       </c>
-      <c r="G53" s="115">
+      <c r="G53" s="107">
         <v>0</v>
       </c>
       <c r="H53" s="2">
@@ -28058,8 +28058,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28075,65 +28075,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="106" t="s">
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="R1" s="106" t="s">
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="R1" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106" t="s">
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AE1" s="106" t="s">
+      <c r="Z1" s="108"/>
+      <c r="AE1" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="106"/>
+      <c r="AF1" s="108"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106" t="s">
+      <c r="F2" s="108"/>
+      <c r="G2" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="106" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106" t="s">
+      <c r="L2" s="108"/>
+      <c r="M2" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="106"/>
+      <c r="N2" s="108"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -30460,14 +30460,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="113"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -30862,7 +30862,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
